--- a/userUc638d641cd892715128053544ff83fae.xlsx
+++ b/userUc638d641cd892715128053544ff83fae.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="J2:K2"/>
+  <dimension ref="A2:GR201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,22 @@
       <c r="K2" t="n">
         <v>102</v>
       </c>
+      <c r="DF2" t="n">
+        <v>102</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="n">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/userUc638d641cd892715128053544ff83fae.xlsx
+++ b/userUc638d641cd892715128053544ff83fae.xlsx
@@ -171,8 +171,8 @@
   </sheetPr>
   <dimension ref="A1:GR201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O222" activeCellId="0" sqref="O222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,6 +243,12 @@
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="n">
         <v>102</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/userUc638d641cd892715128053544ff83fae.xlsx
+++ b/userUc638d641cd892715128053544ff83fae.xlsx
@@ -171,8 +171,8 @@
   </sheetPr>
   <dimension ref="A1:GR201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O222" activeCellId="0" sqref="O222"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H201" activeCellId="0" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,6 +243,9 @@
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="n">
         <v>102</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="M201" s="0" t="n">
         <v>0</v>

--- a/userUc638d641cd892715128053544ff83fae.xlsx
+++ b/userUc638d641cd892715128053544ff83fae.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t xml:space="preserve">plan</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">yyyy</t>
   </si>
   <si>
-    <t xml:space="preserve">MM</t>
+    <t xml:space="preserve">mm</t>
   </si>
   <si>
     <t xml:space="preserve">dd</t>
@@ -37,19 +37,22 @@
     <t xml:space="preserve">hh</t>
   </si>
   <si>
-    <t xml:space="preserve">mm</t>
+    <t xml:space="preserve">latest_row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue_id</t>
   </si>
   <si>
     <t xml:space="preserve">flag</t>
   </si>
   <si>
-    <t xml:space="preserve">buffer1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffer2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffer3</t>
+    <t xml:space="preserve">buffer1(何月何日)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer2(何時何分)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer3(予定)</t>
   </si>
   <si>
     <t xml:space="preserve">error_catch</t>
@@ -71,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -92,6 +95,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -143,12 +158,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,13 +198,13 @@
   </sheetPr>
   <dimension ref="A1:GR201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H201" activeCellId="0" sqref="H201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA201" activeCellId="0" sqref="AA201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -194,31 +221,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,17 +273,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="B201" s="0" t="n">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H201" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="M201" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/userUc638d641cd892715128053544ff83fae.xlsx
+++ b/userUc638d641cd892715128053544ff83fae.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A201:CV201"/>
+  <dimension ref="A1:CV201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,6 +421,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Uc638d641cd892715128053544ff83fae</t>
+        </is>
+      </c>
+    </row>
     <row r="201">
       <c r="A201" t="n">
         <v>0</v>
